--- a/rastrigin/add_noise/lowest_loss_in_iter.xlsx
+++ b/rastrigin/add_noise/lowest_loss_in_iter.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.72778247105666</v>
+        <v>41.82981864580804</v>
       </c>
       <c r="C2">
-        <v>25.66667929725945</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D2">
-        <v>49.55710873103463</v>
+        <v>43.58206693820312</v>
       </c>
       <c r="E2">
-        <v>14.7871275518489</v>
+        <v>35.10667621954779</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.89538613428386</v>
+        <v>41.82981864580804</v>
       </c>
       <c r="C3">
-        <v>25.66667929725945</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D3">
-        <v>16.00804425750096</v>
+        <v>43.51942067826702</v>
       </c>
       <c r="E3">
-        <v>14.7871275518489</v>
+        <v>23.61307215578357</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89538613428386</v>
+        <v>41.82981864580804</v>
       </c>
       <c r="C4">
-        <v>5.436551190389399</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D4">
-        <v>13.55972174905944</v>
+        <v>43.51942067826702</v>
       </c>
       <c r="E4">
-        <v>14.7871275518489</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.16400945036775</v>
+        <v>23.48593870695883</v>
       </c>
       <c r="C5">
-        <v>5.436551190389399</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D5">
-        <v>4.335155498405626</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E5">
-        <v>12.60394449477598</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.033664727632772</v>
+        <v>23.48593870695883</v>
       </c>
       <c r="C6">
-        <v>3.242054215413714</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D6">
-        <v>4.335155498405626</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E6">
-        <v>12.60394449477598</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.755871631569563</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C7">
-        <v>3.242054215413714</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D7">
-        <v>4.335155498405626</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E7">
-        <v>4.039225801000205</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9805253431048757</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C8">
-        <v>3.242054215413714</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D8">
-        <v>4.245456293318851</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E8">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4260291266707337</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C9">
-        <v>0.7854082540270519</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D9">
-        <v>1.89251205596396</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E9">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C10">
-        <v>0.7854082540270519</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D10">
-        <v>-0.4377107340689319</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E10">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C11">
-        <v>0.7854082540270519</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D11">
-        <v>-0.4377107340689319</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E11">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C12">
-        <v>0.7854082540270519</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D12">
-        <v>-0.4377107340689319</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E12">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C13">
-        <v>0.7854082540270519</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D13">
-        <v>-0.4377107340689319</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E13">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C14">
-        <v>0.7854082540270519</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D14">
-        <v>-0.4377107340689319</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E14">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C15">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D15">
-        <v>-0.4377107340689319</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E15">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C16">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D16">
-        <v>-0.4377107340689319</v>
+        <v>19.76807200930811</v>
       </c>
       <c r="E16">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C17">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D17">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E17">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.03255732729699079</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C18">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D18">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E18">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2865075181930785</v>
+        <v>21.78565594795221</v>
       </c>
       <c r="C19">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D19">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E19">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.2865075181930785</v>
+        <v>20.90718437054669</v>
       </c>
       <c r="C20">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D20">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E20">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.2865075181930785</v>
+        <v>20.79807174231033</v>
       </c>
       <c r="C21">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D21">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E21">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.2865075181930785</v>
+        <v>20.79807174231033</v>
       </c>
       <c r="C22">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D22">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E22">
-        <v>1.3811720927547</v>
+        <v>3.337788520509218</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.2865075181930785</v>
+        <v>20.79807174231033</v>
       </c>
       <c r="C23">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D23">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E23">
-        <v>1.3811720927547</v>
+        <v>2.526325816163247</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.2865075181930785</v>
+        <v>20.79807174231033</v>
       </c>
       <c r="C24">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D24">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E24">
-        <v>1.3811720927547</v>
+        <v>2.526325816163247</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.2865075181930785</v>
+        <v>20.79807174231033</v>
       </c>
       <c r="C25">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D25">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E25">
-        <v>1.3811720927547</v>
+        <v>2.526325816163247</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C26">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D26">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E26">
-        <v>1.3811720927547</v>
+        <v>2.526325816163247</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C27">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D27">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E27">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C28">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D28">
-        <v>-0.4377107340689319</v>
+        <v>16.28054437076482</v>
       </c>
       <c r="E28">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C29">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D29">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E29">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C30">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D30">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E30">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C31">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D31">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E31">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C32">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D32">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E32">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C33">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D33">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E33">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C34">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D34">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E34">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C35">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D35">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E35">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C36">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D36">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E36">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.2865075181930785</v>
+        <v>18.71200197796063</v>
       </c>
       <c r="C37">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D37">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E37">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C38">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D38">
-        <v>-0.4377107340689319</v>
+        <v>6.776519609515645</v>
       </c>
       <c r="E38">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C39">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D39">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E39">
-        <v>1.3811720927547</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C40">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D40">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E40">
-        <v>0.2420124522988383</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C41">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D41">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E41">
-        <v>-0.9163842199961079</v>
+        <v>-2.159746960932743</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C42">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D42">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E42">
-        <v>-0.9163842199961079</v>
+        <v>-5.352027628372145</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C43">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D43">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E43">
-        <v>-0.9163842199961079</v>
+        <v>-5.352027628372145</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C44">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D44">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E44">
-        <v>-0.9163842199961079</v>
+        <v>-5.352027628372145</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C45">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D45">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E45">
-        <v>-0.9163842199961079</v>
+        <v>-5.352027628372145</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.2865075181930785</v>
+        <v>17.7178413188736</v>
       </c>
       <c r="C46">
-        <v>0.185774713009107</v>
+        <v>3.541709949280602</v>
       </c>
       <c r="D46">
-        <v>-0.4377107340689319</v>
+        <v>5.537964642031774</v>
       </c>
       <c r="E46">
-        <v>-0.9163842199961079</v>
+        <v>-5.352027628372145</v>
       </c>
     </row>
   </sheetData>
